--- a/output/fit_clients/fit_round_397.xlsx
+++ b/output/fit_clients/fit_round_397.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2192019858.421671</v>
+        <v>2184499281.097897</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07062874605224274</v>
+        <v>0.07423784960468083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02965002214035859</v>
+        <v>0.03842921441605358</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1096009950.659132</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2037669835.924894</v>
+        <v>1850622248.231463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1835986122805007</v>
+        <v>0.1802476915608133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04402126082944699</v>
+        <v>0.04876486163867651</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1018834963.866356</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3248367947.744513</v>
+        <v>4437964375.531962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1486558037741498</v>
+        <v>0.1406007423026518</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03204992713788912</v>
+        <v>0.02991199239518387</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>143</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1624183934.830753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3851807601.104665</v>
+        <v>3880139560.555216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07707846056383483</v>
+        <v>0.07745037758154792</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04749373119478997</v>
+        <v>0.03828858053319855</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>146</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1925903814.094667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2611370288.063245</v>
+        <v>2050404475.51324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1311118506397865</v>
+        <v>0.09678496163593171</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04245941240846192</v>
+        <v>0.03604501582751612</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1305685107.478401</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2602826582.364695</v>
+        <v>2161012550.452745</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06782104026412272</v>
+        <v>0.08771475098857157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04229446359178644</v>
+        <v>0.03341927973010847</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1301413294.293518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3425027214.850943</v>
+        <v>3677213839.196741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1590927778143536</v>
+        <v>0.2075675990880468</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03192095987988147</v>
+        <v>0.02506861429612428</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>126</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1712513708.403521</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1720511671.433139</v>
+        <v>1887910084.669699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161303447414347</v>
+        <v>0.1896297482748434</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03205479920196385</v>
+        <v>0.03129535107062645</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>860255901.1205204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5320022147.881632</v>
+        <v>4067038896.444236</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1318064515353529</v>
+        <v>0.1780385853531612</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05334148956295022</v>
+        <v>0.04398869049101537</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>167</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2660011198.033873</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4176020492.915294</v>
+        <v>3589326603.722476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1292601341619476</v>
+        <v>0.1606673675471241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03441431116986145</v>
+        <v>0.03360018654919168</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>164</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2088010271.392878</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2134323842.288362</v>
+        <v>2161347184.413579</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1802933767874429</v>
+        <v>0.1619200030334413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04244238428187085</v>
+        <v>0.0419683373799468</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1067161859.89797</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3542293273.801436</v>
+        <v>3792679242.624403</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09407896484614453</v>
+        <v>0.08110969428183594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02101394191764826</v>
+        <v>0.02501794923318121</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>133</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1771146715.092856</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2464359066.224423</v>
+        <v>2972316933.742565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1155757634590327</v>
+        <v>0.1420207540766682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03485636526860288</v>
+        <v>0.04324051312176262</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1232179606.355073</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1582460759.402292</v>
+        <v>1256393856.297561</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07770035971497445</v>
+        <v>0.08428452634130754</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03345162941313015</v>
+        <v>0.04508874158360384</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>791230483.9138819</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1859369879.325312</v>
+        <v>2618445238.879203</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08253812761107339</v>
+        <v>0.08585209020936548</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0425548597574498</v>
+        <v>0.03751600006579466</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>929685027.7285434</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4662031501.120548</v>
+        <v>4610485620.470543</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1602776502528857</v>
+        <v>0.121839732400136</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03531136350824746</v>
+        <v>0.05070967688131776</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2331015752.469887</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3946023513.867311</v>
+        <v>3394824841.189142</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1631804421073603</v>
+        <v>0.134252011874043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02411645932382893</v>
+        <v>0.02476481655718158</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>130</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1973011718.685321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1285268412.6939</v>
+        <v>920009161.3169476</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1631381916693873</v>
+        <v>0.1452356020992171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01957729775407839</v>
+        <v>0.02230414390198389</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>642634305.0147114</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1780040954.103361</v>
+        <v>2392208942.776332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.151264289941362</v>
+        <v>0.1283905237041404</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02755374407660035</v>
+        <v>0.02335488896491435</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>890020526.853092</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1836140682.089382</v>
+        <v>1727974463.0119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06418967266647822</v>
+        <v>0.09965783347941858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04259021458177108</v>
+        <v>0.03725044162824626</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>918070392.700992</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2715677449.386677</v>
+        <v>3259932540.106892</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0984813224555962</v>
+        <v>0.1441674375885227</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0524230930921955</v>
+        <v>0.0431380375269592</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1357838803.26688</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971559128.6710018</v>
+        <v>1247150162.850142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1674284030521895</v>
+        <v>0.1568338691439605</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05112354046795708</v>
+        <v>0.0496974649481431</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>485779639.3408736</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4030421202.050047</v>
+        <v>2962672486.639011</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1444121102300064</v>
+        <v>0.1248444028987169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02945755653117594</v>
+        <v>0.03679265014048604</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2015210566.973419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396603938.05707</v>
+        <v>960384237.4708569</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09466501288852655</v>
+        <v>0.09246413827696928</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02759644772523739</v>
+        <v>0.02148226249276589</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>698301941.7760051</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1278294703.301618</v>
+        <v>970410857.1511952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1111261662873869</v>
+        <v>0.1237149861743107</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03416033257079755</v>
+        <v>0.02378115124771107</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>639147391.8671538</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3178782939.010787</v>
+        <v>4557674164.050239</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1175281453819426</v>
+        <v>0.1072772724762942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02459797388907389</v>
+        <v>0.02270998960780394</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1589391520.449928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2958602048.095227</v>
+        <v>2832197058.150578</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09373675815835403</v>
+        <v>0.1183173368831446</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04530891446414948</v>
+        <v>0.03610915165091096</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>127</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1479301031.694186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4928316990.70045</v>
+        <v>5510399738.131331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1436273945880982</v>
+        <v>0.1449259119976525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0452392781098556</v>
+        <v>0.03634396289137583</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>175</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2464158447.872765</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2189859778.808304</v>
+        <v>2106202513.596291</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1166199622054511</v>
+        <v>0.1300913523720755</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03408308056010417</v>
+        <v>0.024490341398322</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1094929948.485632</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>962511359.2722116</v>
+        <v>1290458794.011618</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06765766315839644</v>
+        <v>0.0694352402490499</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05249209388995929</v>
+        <v>0.03223619603836378</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>481255687.0168469</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1771729226.713858</v>
+        <v>1589643937.126987</v>
       </c>
       <c r="F32" t="n">
-        <v>0.107694655538584</v>
+        <v>0.0859710009115667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02646976268742635</v>
+        <v>0.03619145547019922</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>885864737.9992473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2174033217.644182</v>
+        <v>2653491602.26888</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1401698604719366</v>
+        <v>0.1924728104307827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03932805052733771</v>
+        <v>0.05154086997975638</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1087016674.827183</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1480054151.165064</v>
+        <v>1400872870.283705</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09939421269752081</v>
+        <v>0.1020186787619221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02652363802984028</v>
+        <v>0.02170834025076141</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>740027034.7279932</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1277317672.500032</v>
+        <v>966533224.9061546</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1088544245956706</v>
+        <v>0.0753270274839053</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03816562784491</v>
+        <v>0.03731193949634553</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>638658794.037547</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2238137830.196558</v>
+        <v>2196030622.105163</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1542526589768001</v>
+        <v>0.1667737976495575</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01955955781573907</v>
+        <v>0.02869262721075769</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1119068958.070397</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1841686596.870799</v>
+        <v>1923452151.175232</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07123868863640673</v>
+        <v>0.06896987555154248</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03555373244475311</v>
+        <v>0.04241624798941768</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>105</v>
-      </c>
-      <c r="J37" t="n">
-        <v>920843303.948279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1893070934.281336</v>
+        <v>1333855940.720958</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08106435548955102</v>
+        <v>0.09077236195973967</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04000542027189311</v>
+        <v>0.03513694159216037</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>946535460.8869257</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1820058026.448015</v>
+        <v>1417028072.649254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1191702127336802</v>
+        <v>0.1649180004468774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02918333395909025</v>
+        <v>0.03299639827890993</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>910029035.0748885</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761970329.069011</v>
+        <v>1767305502.943244</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1404332757387328</v>
+        <v>0.1405903622790878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05862419354639696</v>
+        <v>0.03803016958790154</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>880985065.1754599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2472404350.278932</v>
+        <v>2305856082.982298</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1493381740845119</v>
+        <v>0.1659740100787771</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04571990985847855</v>
+        <v>0.04256918893510864</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>101</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1236202203.134243</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3330572142.943271</v>
+        <v>3675983764.380777</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1059706283514544</v>
+        <v>0.1274358596574312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03534317581246744</v>
+        <v>0.03772825937826901</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>132</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1665286054.666459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2617420585.466867</v>
+        <v>2176336178.270203</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1954675933394452</v>
+        <v>0.1602412767611612</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01939130735134397</v>
+        <v>0.02394364144575119</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>138</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1308710329.58635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1447143336.049983</v>
+        <v>1915434234.379445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08057481015695236</v>
+        <v>0.07033146747700848</v>
       </c>
       <c r="G44" t="n">
-        <v>0.026413901822018</v>
+        <v>0.02302019392613042</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>723571664.0655316</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1881064562.919585</v>
+        <v>1688688136.118517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1343144381367711</v>
+        <v>0.1896253290446757</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03632796445852555</v>
+        <v>0.03535603951442239</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>940532260.3570315</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4522222173.705128</v>
+        <v>3889125046.351559</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1125668511878067</v>
+        <v>0.1194603134094534</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05288256060811532</v>
+        <v>0.04942249270200284</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>141</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2261111086.29486</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3601263841.068295</v>
+        <v>5133007409.215436</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1842283342062813</v>
+        <v>0.1695470126915972</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05044155737428335</v>
+        <v>0.05099902452433563</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1800631897.071628</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4434531197.039948</v>
+        <v>3690926954.930603</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1025499207525406</v>
+        <v>0.0920884595128918</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0240543896980172</v>
+        <v>0.02402557962359584</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2217265607.648914</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1776367085.809978</v>
+        <v>1421893332.551881</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1418349181229279</v>
+        <v>0.1275534775090582</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03002699432748073</v>
+        <v>0.0317052431894088</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>888183531.9874212</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3679646447.563102</v>
+        <v>3012069313.197914</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1607674561841358</v>
+        <v>0.1528363623176905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03280065505026947</v>
+        <v>0.04072244299727229</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>135</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1839823235.29614</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>970331885.0979381</v>
+        <v>1286013284.188831</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1796275172684161</v>
+        <v>0.1411198150334379</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04289981852954838</v>
+        <v>0.03944669991005805</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>485166031.3395209</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3592191220.628687</v>
+        <v>4197320282.781114</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09024309217259964</v>
+        <v>0.0896721612843633</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04511764099066315</v>
+        <v>0.03989231680987079</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>163</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1796095690.805276</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2936960065.959177</v>
+        <v>3265968263.900518</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1926858286202269</v>
+        <v>0.1292053340649074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03021298593147565</v>
+        <v>0.03509526702693785</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>114</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1468480069.784762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3258360069.292112</v>
+        <v>4363897826.850048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1028025291935201</v>
+        <v>0.1587587588456159</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04914845877486663</v>
+        <v>0.04569982979914574</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1629180040.47413</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3991109734.888361</v>
+        <v>3579224218.775951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1699851482444362</v>
+        <v>0.1675345853072484</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02297349941435157</v>
+        <v>0.0205859703876634</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1995554841.975812</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1590607458.19446</v>
+        <v>1833496398.233447</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1397167662357476</v>
+        <v>0.1415430148253603</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0554816847513178</v>
+        <v>0.05739955833165746</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>795303757.9534301</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2957947066.104096</v>
+        <v>4489695208.488734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.14779861412447</v>
+        <v>0.1402267867484714</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02216049204295954</v>
+        <v>0.02769001122714147</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>126</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1478973533.939344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1824028708.159544</v>
+        <v>1541175528.565078</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1265544056564397</v>
+        <v>0.1992409599677891</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02763064465350746</v>
+        <v>0.03189387501399455</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>912014355.6556252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5174938765.562558</v>
+        <v>4258425266.303286</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1301250709979579</v>
+        <v>0.08840242023874886</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03405555464989796</v>
+        <v>0.0379785449011598</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2587469302.065383</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2688420048.687467</v>
+        <v>2990799766.927796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1543131242094042</v>
+        <v>0.192475933099042</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02873230726163478</v>
+        <v>0.03234328274271787</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>123</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1344210062.023582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2532960384.204283</v>
+        <v>2195811018.545407</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1510100717312304</v>
+        <v>0.1164939354908979</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02248736336099363</v>
+        <v>0.02882965993699228</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>136</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1266480216.624044</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1318175648.659309</v>
+        <v>1731880829.322842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1679765411927993</v>
+        <v>0.122392677068351</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04458699685459099</v>
+        <v>0.04788468251525211</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>659087780.1356145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4446745691.140214</v>
+        <v>3710616487.091789</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07336083914292077</v>
+        <v>0.07243059516118273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03483326165520354</v>
+        <v>0.03590483905233933</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>114</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2223372888.035751</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5264074848.627926</v>
+        <v>4881446404.152107</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1882966046904998</v>
+        <v>0.1167878890793681</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02377660192358622</v>
+        <v>0.02681181743645475</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>123</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2632037549.099261</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4045891480.261556</v>
+        <v>4398764068.364034</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1457559638611455</v>
+        <v>0.1253663341962231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02976547732790949</v>
+        <v>0.02081082729927546</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>142</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2022945755.979353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5570350892.524901</v>
+        <v>4641593241.006088</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1598567273864417</v>
+        <v>0.1334705954141902</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03171588726860329</v>
+        <v>0.03593339579001029</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2785175504.031754</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2450161271.440894</v>
+        <v>2412716199.433731</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07580812829890526</v>
+        <v>0.08698177015452926</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04829748740742645</v>
+        <v>0.03283102629175558</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>127</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1225080700.519465</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4093120547.069874</v>
+        <v>4153171314.93358</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1096249187730849</v>
+        <v>0.1456806377506841</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03744051507082397</v>
+        <v>0.03814139979052031</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2046560274.98218</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1790099817.472414</v>
+        <v>1517627835.084445</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1351379505805486</v>
+        <v>0.1578950239715557</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04854590043743926</v>
+        <v>0.04911079836049059</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>895049886.5535206</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3568270400.585503</v>
+        <v>3172824507.584712</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08351689192650168</v>
+        <v>0.08386007698636956</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03476425191872789</v>
+        <v>0.03977117685503558</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>113</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1784135214.352967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5431833099.446136</v>
+        <v>3867170108.766049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1296682575505115</v>
+        <v>0.1311795658403204</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03091117555593647</v>
+        <v>0.02544308141093354</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>144</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2715916687.663928</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1685692296.745359</v>
+        <v>1386605187.015024</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09632565229798927</v>
+        <v>0.07317870405185642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04954453002531201</v>
+        <v>0.05113030716956465</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>842846145.419273</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3055773791.568985</v>
+        <v>2967648446.515898</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07802202163154334</v>
+        <v>0.1029361821925645</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04205792031796476</v>
+        <v>0.04378152353299468</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>151</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1527886886.654518</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2826095528.829226</v>
+        <v>3849362253.25159</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1546325635852798</v>
+        <v>0.1207392964840158</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02644384686124191</v>
+        <v>0.0255434954855954</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>134</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1413047844.828888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1541309625.990667</v>
+        <v>1871354960.542255</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1016781894687235</v>
+        <v>0.1258816334428934</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03687805575663135</v>
+        <v>0.02819113020948592</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>770654820.2563206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3950072367.105494</v>
+        <v>3364315840.261643</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08702738986100937</v>
+        <v>0.09248375300138824</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03124044426205108</v>
+        <v>0.02838458216561485</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1975036166.163547</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1718646952.936744</v>
+        <v>1920793454.717479</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1250860705393353</v>
+        <v>0.135955220420557</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03148960670544731</v>
+        <v>0.02877393743538462</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>859323496.4517725</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3546996514.990727</v>
+        <v>3126265834.671955</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09821168915005962</v>
+        <v>0.136890464478763</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05334126683395279</v>
+        <v>0.04172949623121273</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>138</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1773498255.666271</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1778922189.851221</v>
+        <v>1517813438.635529</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1577382985665669</v>
+        <v>0.1196682869128477</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02853892143504614</v>
+        <v>0.03162064922316993</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>889461177.9560585</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5568808475.853696</v>
+        <v>5057989083.083106</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09895234991690703</v>
+        <v>0.07972250466135183</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03565243743920583</v>
+        <v>0.03679463731676006</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2784404315.425607</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3642178779.132874</v>
+        <v>3809616977.21992</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08985565364203943</v>
+        <v>0.09115322909594098</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02826024354654209</v>
+        <v>0.0298975211521545</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1821089339.516741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5406004823.825798</v>
+        <v>4792402979.580809</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1555625879816594</v>
+        <v>0.1736106585734115</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02658547121452654</v>
+        <v>0.02691443623894105</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2703002373.200918</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2200635668.400566</v>
+        <v>1731154675.086923</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1412447616598582</v>
+        <v>0.1059230369939535</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03227875518955631</v>
+        <v>0.03525098108569632</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1100317844.465598</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2367840175.290111</v>
+        <v>1954999032.455579</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044222423894902</v>
+        <v>0.09620529856888173</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04342461343806361</v>
+        <v>0.04684441851938437</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1183920038.782509</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3544044717.877963</v>
+        <v>3094225436.175653</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1386028247984195</v>
+        <v>0.1163967190132379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04712491866550261</v>
+        <v>0.0409098359241989</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>149</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1772022479.167964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2783227993.01122</v>
+        <v>2358782950.795806</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1204511421436923</v>
+        <v>0.1413579759259397</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01952801125485399</v>
+        <v>0.01820791914522448</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>53</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1391614133.06015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1356055016.003015</v>
+        <v>1162562382.934355</v>
       </c>
       <c r="F87" t="n">
-        <v>0.190150555403432</v>
+        <v>0.1522975587251839</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03650471673976447</v>
+        <v>0.04018378452380494</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>678027603.5911422</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3358898661.899303</v>
+        <v>2688436261.395558</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160671812400515</v>
+        <v>0.1734380071005882</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03719435922823605</v>
+        <v>0.03932706945903207</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>156</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1679449396.874017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2273668266.048583</v>
+        <v>3118830910.742445</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1033526000565366</v>
+        <v>0.1305423978226026</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03744177500773325</v>
+        <v>0.02701440993109928</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>133</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1136834224.379361</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1678973019.259186</v>
+        <v>1743373442.730595</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0967400398552568</v>
+        <v>0.1043980522754089</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03490781793195098</v>
+        <v>0.03819878416487214</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>839486521.103302</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1361958259.63647</v>
+        <v>1757353999.831451</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1273055356437803</v>
+        <v>0.1560731468779317</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05763243087591373</v>
+        <v>0.03976021255616947</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>680979187.1517</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2875716841.5092</v>
+        <v>2977526496.894614</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07332697885667101</v>
+        <v>0.06938454872807541</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04439946895100207</v>
+        <v>0.04742317476874623</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>113</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1437858433.149548</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4023911676.823726</v>
+        <v>4788344368.500714</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09312582189893644</v>
+        <v>0.09616700094226587</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05218688336686337</v>
+        <v>0.0414609424413193</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2011955837.477428</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1520879526.696463</v>
+        <v>1925734654.987869</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1273394899477844</v>
+        <v>0.1427387138132282</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04109392609790489</v>
+        <v>0.03399666783036907</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>760439699.3611149</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3089547206.922172</v>
+        <v>2887337395.091607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08559469235760991</v>
+        <v>0.102629887949545</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03363816150570585</v>
+        <v>0.03651445040413939</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1544773596.676243</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1709605707.212602</v>
+        <v>1993218386.475934</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1194244711710911</v>
+        <v>0.09763088560259266</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03022955165467604</v>
+        <v>0.03850509552949903</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>854802871.5875218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4969265116.070891</v>
+        <v>3604600952.072243</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1414437647120199</v>
+        <v>0.1306562260399989</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02823532220658328</v>
+        <v>0.01842413560558566</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>127</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2484632692.378932</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2512133841.609591</v>
+        <v>2440125705.576319</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08143500132443918</v>
+        <v>0.1046244341999774</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02203754378350982</v>
+        <v>0.03016873297461526</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1256066872.434823</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2723776358.968639</v>
+        <v>2300547070.186454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09373535162390755</v>
+        <v>0.1185572209103238</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0349501716800691</v>
+        <v>0.03168449181122271</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1361888145.420766</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4185083504.311666</v>
+        <v>3588371058.397373</v>
       </c>
       <c r="F100" t="n">
-        <v>0.134313295907689</v>
+        <v>0.1788623253223676</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02488561745869452</v>
+        <v>0.02081365217094481</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2092541837.618321</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2618647263.836894</v>
+        <v>2597728929.478037</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189340449580244</v>
+        <v>0.1505774749993578</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04012834959050893</v>
+        <v>0.04972926217689638</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>161</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1309323670.597222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_397.xlsx
+++ b/output/fit_clients/fit_round_397.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2184499281.097897</v>
+        <v>2194229263.164813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07423784960468083</v>
+        <v>0.07658824924929929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03842921441605358</v>
+        <v>0.03128918265203862</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1850622248.231463</v>
+        <v>2463172181.466743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1802476915608133</v>
+        <v>0.1529462474352573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04876486163867651</v>
+        <v>0.04425738988673382</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4437964375.531962</v>
+        <v>3974726718.784163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1406007423026518</v>
+        <v>0.1109172700524529</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02991199239518387</v>
+        <v>0.02804019070273096</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3880139560.555216</v>
+        <v>3141747956.66378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07745037758154792</v>
+        <v>0.1010566862076053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03828858053319855</v>
+        <v>0.03438507626354888</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2050404475.51324</v>
+        <v>2870910323.088445</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09678496163593171</v>
+        <v>0.09349684091953928</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03604501582751612</v>
+        <v>0.04624468934857597</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2161012550.452745</v>
+        <v>2752371092.812737</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08771475098857157</v>
+        <v>0.08016812198991806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03341927973010847</v>
+        <v>0.04973104082125461</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3677213839.196741</v>
+        <v>2730953582.472885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2075675990880468</v>
+        <v>0.1708534475382952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02506861429612428</v>
+        <v>0.03131221296156909</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1887910084.669699</v>
+        <v>2158046725.907648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1896297482748434</v>
+        <v>0.1514351829301547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03129535107062645</v>
+        <v>0.03212736736735387</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4067038896.444236</v>
+        <v>5348937831.770147</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1780385853531612</v>
+        <v>0.2030277439710584</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04398869049101537</v>
+        <v>0.04014109950160159</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3589326603.722476</v>
+        <v>3221433252.373668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1606673675471241</v>
+        <v>0.1419461562300487</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03360018654919168</v>
+        <v>0.03237132314116956</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2161347184.413579</v>
+        <v>3234518554.154767</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1619200030334413</v>
+        <v>0.1674191569521429</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0419683373799468</v>
+        <v>0.05388381990485557</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3792679242.624403</v>
+        <v>5176234771.661814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08110969428183594</v>
+        <v>0.07039464135187144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02501794923318121</v>
+        <v>0.02641697419655542</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2972316933.742565</v>
+        <v>2743478168.588517</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1420207540766682</v>
+        <v>0.1566470204007145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04324051312176262</v>
+        <v>0.03824615153894927</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1256393856.297561</v>
+        <v>1190037548.939346</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08428452634130754</v>
+        <v>0.07909588951345639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04508874158360384</v>
+        <v>0.04349623661467519</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2618445238.879203</v>
+        <v>1955266456.904643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08585209020936548</v>
+        <v>0.08289645511538456</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03751600006579466</v>
+        <v>0.03462259554241939</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4610485620.470543</v>
+        <v>5046264219.810698</v>
       </c>
       <c r="F17" t="n">
-        <v>0.121839732400136</v>
+        <v>0.1513692061348215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05070967688131776</v>
+        <v>0.04857634636964586</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3394824841.189142</v>
+        <v>2962297677.38776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.134252011874043</v>
+        <v>0.1771357621439532</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02476481655718158</v>
+        <v>0.02125017962086507</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>920009161.3169476</v>
+        <v>827923241.7667593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1452356020992171</v>
+        <v>0.1397055980523327</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02230414390198389</v>
+        <v>0.0235717058518691</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2392208942.776332</v>
+        <v>2117035471.725291</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1283905237041404</v>
+        <v>0.1542749037242198</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02335488896491435</v>
+        <v>0.02663146900469678</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1727974463.0119</v>
+        <v>2475204011.822114</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09965783347941858</v>
+        <v>0.09981218018528232</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03725044162824626</v>
+        <v>0.04519973350200575</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3259932540.106892</v>
+        <v>2555862156.757828</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1441674375885227</v>
+        <v>0.08845248987686825</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0431380375269592</v>
+        <v>0.04969575602187183</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247150162.850142</v>
+        <v>1031577945.845356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1568338691439605</v>
+        <v>0.1407199241588071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0496974649481431</v>
+        <v>0.0345190867352627</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2962672486.639011</v>
+        <v>3799971607.397265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1248444028987169</v>
+        <v>0.1045805787456166</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03679265014048604</v>
+        <v>0.03104113975523466</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>960384237.4708569</v>
+        <v>995636228.1500398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09246413827696928</v>
+        <v>0.08242722266065684</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02148226249276589</v>
+        <v>0.02636948622428303</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>970410857.1511952</v>
+        <v>1199735449.610855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1237149861743107</v>
+        <v>0.1079772080220659</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02378115124771107</v>
+        <v>0.02555845818194387</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4557674164.050239</v>
+        <v>4474031318.212896</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1072772724762942</v>
+        <v>0.1225647705925901</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02270998960780394</v>
+        <v>0.02057153958050829</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2832197058.150578</v>
+        <v>2470014460.04188</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1183173368831446</v>
+        <v>0.138678447380732</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03610915165091096</v>
+        <v>0.03452543135363249</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5510399738.131331</v>
+        <v>4073977516.031433</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1449259119976525</v>
+        <v>0.0925883218983984</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03634396289137583</v>
+        <v>0.03968508934211195</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2106202513.596291</v>
+        <v>2190111032.745104</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1300913523720755</v>
+        <v>0.1120036485769268</v>
       </c>
       <c r="G30" t="n">
-        <v>0.024490341398322</v>
+        <v>0.04011400806113604</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1290458794.011618</v>
+        <v>1214874193.028482</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0694352402490499</v>
+        <v>0.08809234640707801</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03223619603836378</v>
+        <v>0.04326343965747798</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1589643937.126987</v>
+        <v>1666527742.422372</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0859710009115667</v>
+        <v>0.08254116958705886</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03619145547019922</v>
+        <v>0.03349446872998175</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2653491602.26888</v>
+        <v>2869452808.924875</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1924728104307827</v>
+        <v>0.1310612919986303</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05154086997975638</v>
+        <v>0.04872532269360638</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1400872870.283705</v>
+        <v>1414876906.799268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020186787619221</v>
+        <v>0.1143887411113193</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02170834025076141</v>
+        <v>0.02463129513174602</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>966533224.9061546</v>
+        <v>1266364389.727675</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0753270274839053</v>
+        <v>0.1179792118329792</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03731193949634553</v>
+        <v>0.04127293843859434</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2196030622.105163</v>
+        <v>3092927654.002007</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1667737976495575</v>
+        <v>0.133304390889977</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02869262721075769</v>
+        <v>0.02803522143283705</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1923452151.175232</v>
+        <v>2276809063.061538</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06896987555154248</v>
+        <v>0.07296574776458922</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04241624798941768</v>
+        <v>0.03907247731302543</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1333855940.720958</v>
+        <v>2094824411.91906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09077236195973967</v>
+        <v>0.1060827436580861</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03513694159216037</v>
+        <v>0.02823973355995429</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1417028072.649254</v>
+        <v>2214667849.117457</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649180004468774</v>
+        <v>0.1208015522559639</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03299639827890993</v>
+        <v>0.02215453389228806</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1767305502.943244</v>
+        <v>1165107297.113003</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1405903622790878</v>
+        <v>0.1065988112266417</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03803016958790154</v>
+        <v>0.04697629293402977</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2305856082.982298</v>
+        <v>2551253577.858773</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1659740100787771</v>
+        <v>0.1498939925612627</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04256918893510864</v>
+        <v>0.03858544142748669</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3675983764.380777</v>
+        <v>2788724466.885436</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1274358596574312</v>
+        <v>0.1225625404491507</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03772825937826901</v>
+        <v>0.03865176660936585</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2176336178.270203</v>
+        <v>2642557182.558083</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1602412767611612</v>
+        <v>0.1470131873966116</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02394364144575119</v>
+        <v>0.02246372615450173</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1915434234.379445</v>
+        <v>1897519785.76853</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07033146747700848</v>
+        <v>0.09757521129485966</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02302019392613042</v>
+        <v>0.02893930497292044</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1688688136.118517</v>
+        <v>2198255854.656843</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1896253290446757</v>
+        <v>0.1505780926540916</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03535603951442239</v>
+        <v>0.04179089929334025</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3889125046.351559</v>
+        <v>4741956981.292431</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1194603134094534</v>
+        <v>0.1348343458167479</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04942249270200284</v>
+        <v>0.05754613994234947</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5133007409.215436</v>
+        <v>3627806157.777191</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1695470126915972</v>
+        <v>0.1651576934548158</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05099902452433563</v>
+        <v>0.04110889720297265</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3690926954.930603</v>
+        <v>3092049232.142646</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0920884595128918</v>
+        <v>0.09882679575331905</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02402557962359584</v>
+        <v>0.03786032721402255</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1421893332.551881</v>
+        <v>1865857735.281024</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1275534775090582</v>
+        <v>0.1927515165711502</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0317052431894088</v>
+        <v>0.0443401115168431</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3012069313.197914</v>
+        <v>3455809821.263164</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1528363623176905</v>
+        <v>0.1760616004621684</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04072244299727229</v>
+        <v>0.03968231163942965</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1286013284.188831</v>
+        <v>1321541416.151071</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1411198150334379</v>
+        <v>0.144552482151195</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03944669991005805</v>
+        <v>0.03733145600226707</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4197320282.781114</v>
+        <v>4583896952.036363</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0896721612843633</v>
+        <v>0.1336949025444908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03989231680987079</v>
+        <v>0.05426521908917052</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3265968263.900518</v>
+        <v>3665327539.947911</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1292053340649074</v>
+        <v>0.1912002045756878</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03509526702693785</v>
+        <v>0.03192557937324796</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4363897826.850048</v>
+        <v>4136801935.448387</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1587587588456159</v>
+        <v>0.1069047408638515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04569982979914574</v>
+        <v>0.04142907916541838</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3579224218.775951</v>
+        <v>3320757802.06417</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1675345853072484</v>
+        <v>0.1923807333600863</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0205859703876634</v>
+        <v>0.02600139365731856</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1833496398.233447</v>
+        <v>1735409288.022582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1415430148253603</v>
+        <v>0.1327241219404226</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05739955833165746</v>
+        <v>0.05245606389045891</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4489695208.488734</v>
+        <v>2793024608.884049</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1402267867484714</v>
+        <v>0.140217041085211</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02769001122714147</v>
+        <v>0.01965031640721554</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1541175528.565078</v>
+        <v>1457399743.880955</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1992409599677891</v>
+        <v>0.1487036110031869</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03189387501399455</v>
+        <v>0.03473482107469885</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4258425266.303286</v>
+        <v>4136367876.446371</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08840242023874886</v>
+        <v>0.1217291780621422</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0379785449011598</v>
+        <v>0.03107173464422271</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2990799766.927796</v>
+        <v>3625987506.228427</v>
       </c>
       <c r="F60" t="n">
-        <v>0.192475933099042</v>
+        <v>0.1882444018424587</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03234328274271787</v>
+        <v>0.02269816648741068</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2195811018.545407</v>
+        <v>2056685844.271904</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1164939354908979</v>
+        <v>0.1538566902763973</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02882965993699228</v>
+        <v>0.03068279740376992</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1731880829.322842</v>
+        <v>1774874032.389966</v>
       </c>
       <c r="F62" t="n">
-        <v>0.122392677068351</v>
+        <v>0.120407463189226</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04788468251525211</v>
+        <v>0.04136266581387888</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3710616487.091789</v>
+        <v>4052249116.771603</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07243059516118273</v>
+        <v>0.08303098506645562</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03590483905233933</v>
+        <v>0.03766190082443404</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4881446404.152107</v>
+        <v>3911684825.636549</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1167878890793681</v>
+        <v>0.1534502298356961</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02681181743645475</v>
+        <v>0.03015549844375436</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4398764068.364034</v>
+        <v>5718367043.65905</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1253663341962231</v>
+        <v>0.1531189272150583</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02081082729927546</v>
+        <v>0.02146229243097611</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4641593241.006088</v>
+        <v>4893310716.869657</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1334705954141902</v>
+        <v>0.1217688591648223</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03593339579001029</v>
+        <v>0.04774235584236738</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2412716199.433731</v>
+        <v>2555401016.856039</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08698177015452926</v>
+        <v>0.06639080303435867</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03283102629175558</v>
+        <v>0.04343425132970979</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4153171314.93358</v>
+        <v>4500665228.941648</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1456806377506841</v>
+        <v>0.1280362157450357</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03814139979052031</v>
+        <v>0.03859528646038143</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1517627835.084445</v>
+        <v>1893113933.437365</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578950239715557</v>
+        <v>0.1189867969807206</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04911079836049059</v>
+        <v>0.05995802415725616</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3172824507.584712</v>
+        <v>2649008080.797346</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08386007698636956</v>
+        <v>0.07131113874608763</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03977117685503558</v>
+        <v>0.03576719636565866</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3867170108.766049</v>
+        <v>4622413927.317578</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1311795658403204</v>
+        <v>0.1531396792239831</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02544308141093354</v>
+        <v>0.03364418650178633</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1386605187.015024</v>
+        <v>1958600087.798571</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07317870405185642</v>
+        <v>0.09072410749091039</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05113030716956465</v>
+        <v>0.03407716757524608</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2967648446.515898</v>
+        <v>2223566656.913463</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1029361821925645</v>
+        <v>0.1108062593290953</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04378152353299468</v>
+        <v>0.03788428766301777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3849362253.25159</v>
+        <v>3416117640.981956</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1207392964840158</v>
+        <v>0.1766186116161008</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0255434954855954</v>
+        <v>0.02673680098630201</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1871354960.542255</v>
+        <v>1997933658.385451</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1258816334428934</v>
+        <v>0.1164006929835022</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02819113020948592</v>
+        <v>0.03007247239682135</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3364315840.261643</v>
+        <v>3657583004.729018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09248375300138824</v>
+        <v>0.10974400866569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02838458216561485</v>
+        <v>0.02274869571730867</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1920793454.717479</v>
+        <v>1722578513.969739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.135955220420557</v>
+        <v>0.1233376889533752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02877393743538462</v>
+        <v>0.03171648481585203</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3126265834.671955</v>
+        <v>3875783923.383429</v>
       </c>
       <c r="F78" t="n">
-        <v>0.136890464478763</v>
+        <v>0.09765297253045073</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04172949623121273</v>
+        <v>0.03481952595715491</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1517813438.635529</v>
+        <v>1452629825.112973</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1196682869128477</v>
+        <v>0.1484794703105406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03162064922316993</v>
+        <v>0.02478820350520015</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5057989083.083106</v>
+        <v>4726568815.663546</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07972250466135183</v>
+        <v>0.07653992631461193</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03679463731676006</v>
+        <v>0.02395097116966528</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3809616977.21992</v>
+        <v>4065077807.673181</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09115322909594098</v>
+        <v>0.1196841227736673</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0298975211521545</v>
+        <v>0.02562866534237979</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4792402979.580809</v>
+        <v>3951312362.62156</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1736106585734115</v>
+        <v>0.1663886670772353</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02691443623894105</v>
+        <v>0.01823696930887655</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1731154675.086923</v>
+        <v>1736321991.701864</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1059230369939535</v>
+        <v>0.1478607875591124</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03525098108569632</v>
+        <v>0.04303861907271722</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1954999032.455579</v>
+        <v>2527993356.595099</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09620529856888173</v>
+        <v>0.08611088029367253</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04684441851938437</v>
+        <v>0.033751542846239</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3094225436.175653</v>
+        <v>2971354370.301335</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1163967190132379</v>
+        <v>0.1564558602802692</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0409098359241989</v>
+        <v>0.04927497587100308</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2358782950.795806</v>
+        <v>2687291580.548047</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1413579759259397</v>
+        <v>0.1300434955549527</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01820791914522448</v>
+        <v>0.01847720361962565</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162562382.934355</v>
+        <v>1333505013.146503</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1522975587251839</v>
+        <v>0.1890836707448927</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04018378452380494</v>
+        <v>0.0328363369015779</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2688436261.395558</v>
+        <v>2954811831.877769</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1734380071005882</v>
+        <v>0.1445128201573853</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03932706945903207</v>
+        <v>0.03844442357620297</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3118830910.742445</v>
+        <v>2964664575.094401</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1305423978226026</v>
+        <v>0.1469590015458991</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02701440993109928</v>
+        <v>0.03073526400972375</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1743373442.730595</v>
+        <v>1509591477.544994</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1043980522754089</v>
+        <v>0.1316716703788691</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03819878416487214</v>
+        <v>0.03666586813588444</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1757353999.831451</v>
+        <v>1688416569.190449</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1560731468779317</v>
+        <v>0.1497400784046955</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03976021255616947</v>
+        <v>0.0413302890073269</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2977526496.894614</v>
+        <v>2736209404.79353</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06938454872807541</v>
+        <v>0.09206130814783371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04742317476874623</v>
+        <v>0.03737964533999111</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4788344368.500714</v>
+        <v>4485259471.87957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09616700094226587</v>
+        <v>0.1237995394695715</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0414609424413193</v>
+        <v>0.0346518753258092</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1925734654.987869</v>
+        <v>2430076301.515449</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1427387138132282</v>
+        <v>0.1093660141306454</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03399666783036907</v>
+        <v>0.04098716493444948</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2887337395.091607</v>
+        <v>2893596574.822533</v>
       </c>
       <c r="F95" t="n">
-        <v>0.102629887949545</v>
+        <v>0.09723385303240568</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03651445040413939</v>
+        <v>0.04962811304339223</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1993218386.475934</v>
+        <v>1574494272.918396</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09763088560259266</v>
+        <v>0.09463817873973845</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03850509552949903</v>
+        <v>0.04145714018200523</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3604600952.072243</v>
+        <v>4162393262.172178</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306562260399989</v>
+        <v>0.1385197368486092</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01842413560558566</v>
+        <v>0.02484959904410705</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2440125705.576319</v>
+        <v>2495483082.27553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1046244341999774</v>
+        <v>0.09790344583680113</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03016873297461526</v>
+        <v>0.02640301503606495</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2300547070.186454</v>
+        <v>3320561504.695967</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185572209103238</v>
+        <v>0.105979732454286</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03168449181122271</v>
+        <v>0.02619954174073909</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3588371058.397373</v>
+        <v>4726730656.965645</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1788623253223676</v>
+        <v>0.1375779064765968</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02081365217094481</v>
+        <v>0.02588515902459502</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2597728929.478037</v>
+        <v>2698365096.223076</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1505774749993578</v>
+        <v>0.2138941095166159</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04972926217689638</v>
+        <v>0.04202561919956232</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_397.xlsx
+++ b/output/fit_clients/fit_round_397.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2194229263.164813</v>
+        <v>1587743290.662079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07658824924929929</v>
+        <v>0.09554162661697234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03128918265203862</v>
+        <v>0.03530479601650167</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2463172181.466743</v>
+        <v>2419926102.830047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1529462474352573</v>
+        <v>0.1831499338638078</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04425738988673382</v>
+        <v>0.04601534699527009</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3974726718.784163</v>
+        <v>4237555050.600072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1109172700524529</v>
+        <v>0.1179850527789272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02804019070273096</v>
+        <v>0.02480500543361904</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>202</v>
+      </c>
+      <c r="J4" t="n">
+        <v>397</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3141747956.66378</v>
+        <v>3579901865.645217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1010566862076053</v>
+        <v>0.06693510478682811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03438507626354888</v>
+        <v>0.03594726600521172</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>162</v>
+      </c>
+      <c r="J5" t="n">
+        <v>397</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50.46359682706045</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2870910323.088445</v>
+        <v>1917384408.738623</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09349684091953928</v>
+        <v>0.0922664798019221</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04624468934857597</v>
+        <v>0.05110847397976471</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2752371092.812737</v>
+        <v>1904353644.671273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08016812198991806</v>
+        <v>0.06983376317594243</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04973104082125461</v>
+        <v>0.03939386025944333</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2730953582.472885</v>
+        <v>3130976643.724679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1708534475382952</v>
+        <v>0.1555065816603549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03131221296156909</v>
+        <v>0.02509622531122563</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>108</v>
+      </c>
+      <c r="J8" t="n">
+        <v>394</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2158046725.907648</v>
+        <v>2074258612.04829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1514351829301547</v>
+        <v>0.1602784224772411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03212736736735387</v>
+        <v>0.0293411721703177</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5348937831.770147</v>
+        <v>3778543749.864576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2030277439710584</v>
+        <v>0.1394073582858671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04014109950160159</v>
+        <v>0.05443897835115568</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>397</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3221433252.373668</v>
+        <v>3844807658.521697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1419461562300487</v>
+        <v>0.1562227127531766</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03237132314116956</v>
+        <v>0.03685866893699386</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>166</v>
+      </c>
+      <c r="J11" t="n">
+        <v>397</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3234518554.154767</v>
+        <v>2890253204.165016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1674191569521429</v>
+        <v>0.1770898423413424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05388381990485557</v>
+        <v>0.05188334813510719</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5176234771.661814</v>
+        <v>4926564518.432715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07039464135187144</v>
+        <v>0.06708306032267043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02641697419655542</v>
+        <v>0.02562127951541505</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>207</v>
+      </c>
+      <c r="J13" t="n">
+        <v>397</v>
+      </c>
+      <c r="K13" t="n">
+        <v>49.23202676972745</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2743478168.588517</v>
+        <v>2576635601.942474</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1566470204007145</v>
+        <v>0.1831037369695008</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03824615153894927</v>
+        <v>0.04071331343596848</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1190037548.939346</v>
+        <v>1548373562.694845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07909588951345639</v>
+        <v>0.09785451530445864</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04349623661467519</v>
+        <v>0.04794222645706903</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1955266456.904643</v>
+        <v>2836274600.050435</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08289645511538456</v>
+        <v>0.07406585269895206</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03462259554241939</v>
+        <v>0.04762911940842249</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5046264219.810698</v>
+        <v>3925482156.196774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1513692061348215</v>
+        <v>0.1366880789850118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04857634636964586</v>
+        <v>0.04754930073951974</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>192</v>
+      </c>
+      <c r="J17" t="n">
+        <v>396</v>
+      </c>
+      <c r="K17" t="n">
+        <v>46.70626807107191</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2962297677.38776</v>
+        <v>2460110695.913275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1771357621439532</v>
+        <v>0.1761498011615439</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02125017962086507</v>
+        <v>0.02318144880536863</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>97</v>
+      </c>
+      <c r="J18" t="n">
+        <v>395</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>827923241.7667593</v>
+        <v>1112932311.402593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1397055980523327</v>
+        <v>0.12411051950763</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0235717058518691</v>
+        <v>0.0176139713877515</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2117035471.725291</v>
+        <v>2458786674.040392</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1542749037242198</v>
+        <v>0.1320128870640595</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02663146900469678</v>
+        <v>0.02957150995172909</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2475204011.822114</v>
+        <v>2709970700.5824</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09981218018528232</v>
+        <v>0.06555054543809243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04519973350200575</v>
+        <v>0.04010117380652823</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2555862156.757828</v>
+        <v>3519025257.396433</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08845248987686825</v>
+        <v>0.09399463935170926</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04969575602187183</v>
+        <v>0.04710969723732816</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>109</v>
+      </c>
+      <c r="J22" t="n">
+        <v>397</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.11357760645546</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031577945.845356</v>
+        <v>1437127955.986032</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1407199241588071</v>
+        <v>0.1325732791073659</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0345190867352627</v>
+        <v>0.04663298055050538</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3799971607.397265</v>
+        <v>2917442046.138876</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1045805787456166</v>
+        <v>0.09060920670206848</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03104113975523466</v>
+        <v>0.0365449366375469</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>124</v>
+      </c>
+      <c r="J24" t="n">
+        <v>396</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.43115266367726</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>995636228.1500398</v>
+        <v>1410832575.396267</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08242722266065684</v>
+        <v>0.08742690616485384</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02636948622428303</v>
+        <v>0.02786291946390617</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1199735449.610855</v>
+        <v>1372864591.428493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1079772080220659</v>
+        <v>0.1173504622996426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02555845818194387</v>
+        <v>0.0338391845414276</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4474031318.212896</v>
+        <v>4003775082.436017</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1225647705925901</v>
+        <v>0.1137033146504435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02057153958050829</v>
+        <v>0.01857647770461438</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>165</v>
+      </c>
+      <c r="J27" t="n">
+        <v>397</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2470014460.04188</v>
+        <v>3552494541.97044</v>
       </c>
       <c r="F28" t="n">
-        <v>0.138678447380732</v>
+        <v>0.1454561377414427</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03452543135363249</v>
+        <v>0.03420836847827697</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>96</v>
+      </c>
+      <c r="J28" t="n">
+        <v>397</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4073977516.031433</v>
+        <v>4327739817.169436</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0925883218983984</v>
+        <v>0.149467337928866</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03968508934211195</v>
+        <v>0.03920166224973894</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>337</v>
+      </c>
+      <c r="J29" t="n">
+        <v>397</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2190111032.745104</v>
+        <v>1735935090.387522</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1120036485769268</v>
+        <v>0.1344593828388179</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04011400806113604</v>
+        <v>0.031300355959903</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1214874193.028482</v>
+        <v>974033652.6758741</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08809234640707801</v>
+        <v>0.08395813739683421</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04326343965747798</v>
+        <v>0.03645204213367226</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666527742.422372</v>
+        <v>1679996384.196166</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08254116958705886</v>
+        <v>0.09799792530927408</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03349446872998175</v>
+        <v>0.02693278023366876</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2869452808.924875</v>
+        <v>2850113499.773598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1310612919986303</v>
+        <v>0.1260613277464003</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04872532269360638</v>
+        <v>0.04897684936616875</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1414876906.799268</v>
+        <v>1553885452.073915</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1143887411113193</v>
+        <v>0.1076791060230551</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02463129513174602</v>
+        <v>0.02652313087701868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1266364389.727675</v>
+        <v>856557553.9626011</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1179792118329792</v>
+        <v>0.08750093503954763</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04127293843859434</v>
+        <v>0.03933605733580395</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3092927654.002007</v>
+        <v>3098523094.733731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133304390889977</v>
+        <v>0.1636322228287955</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02803522143283705</v>
+        <v>0.01990850944743245</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2276809063.061538</v>
+        <v>2347742192.484456</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07296574776458922</v>
+        <v>0.09238996371899835</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03907247731302543</v>
+        <v>0.03798150073499866</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2094824411.91906</v>
+        <v>1447360191.339141</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1060827436580861</v>
+        <v>0.08145549308855536</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02823973355995429</v>
+        <v>0.03222185370908819</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2214667849.117457</v>
+        <v>2115503901.635563</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1208015522559639</v>
+        <v>0.180890473425544</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02215453389228806</v>
+        <v>0.02951943703080887</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1165107297.113003</v>
+        <v>1628856601.042781</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1065988112266417</v>
+        <v>0.09839166512197665</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04697629293402977</v>
+        <v>0.05518217363157722</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2551253577.858773</v>
+        <v>2151360870.142831</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1498939925612627</v>
+        <v>0.1428770983919122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03858544142748669</v>
+        <v>0.04213542049880883</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2788724466.885436</v>
+        <v>3206534968.55341</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1225625404491507</v>
+        <v>0.07833342498944994</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03865176660936585</v>
+        <v>0.04302848632029354</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>395</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2642557182.558083</v>
+        <v>2758137508.269706</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1470131873966116</v>
+        <v>0.1737820890964739</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02246372615450173</v>
+        <v>0.01839673225963651</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1897519785.76853</v>
+        <v>1884735080.796156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09757521129485966</v>
+        <v>0.09386384602919876</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02893930497292044</v>
+        <v>0.0282935369381229</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2198255854.656843</v>
+        <v>1793080918.689864</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1505780926540916</v>
+        <v>0.1645212693358704</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04179089929334025</v>
+        <v>0.04088163855563088</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4741956981.292431</v>
+        <v>4752029112.126622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1348343458167479</v>
+        <v>0.107427219108204</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05754613994234947</v>
+        <v>0.04952356397766809</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>238</v>
+      </c>
+      <c r="J46" t="n">
+        <v>396</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46.94172864793142</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3627806157.777191</v>
+        <v>4866218089.827186</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1651576934548158</v>
+        <v>0.2010913322598825</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04110889720297265</v>
+        <v>0.04137913747263514</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>178</v>
+      </c>
+      <c r="J47" t="n">
+        <v>396</v>
+      </c>
+      <c r="K47" t="n">
+        <v>46.66700041853944</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3092049232.142646</v>
+        <v>3021733559.069824</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09882679575331905</v>
+        <v>0.07040578312079426</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03786032721402255</v>
+        <v>0.0325157436627752</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>205</v>
+      </c>
+      <c r="J48" t="n">
+        <v>396</v>
+      </c>
+      <c r="K48" t="n">
+        <v>28.90095164365878</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1865857735.281024</v>
+        <v>1985917293.739013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1927515165711502</v>
+        <v>0.1529208759016885</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0443401115168431</v>
+        <v>0.03876850219185538</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3455809821.263164</v>
+        <v>3476841890.679905</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760616004621684</v>
+        <v>0.1221179295907452</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03968231163942965</v>
+        <v>0.03897697574059073</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>135</v>
+      </c>
+      <c r="J50" t="n">
+        <v>395</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1321541416.151071</v>
+        <v>994041219.6480658</v>
       </c>
       <c r="F51" t="n">
-        <v>0.144552482151195</v>
+        <v>0.1775575163337567</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03733145600226707</v>
+        <v>0.04987814310902899</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4583896952.036363</v>
+        <v>4502928706.945831</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1336949025444908</v>
+        <v>0.1050112133715859</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05426521908917052</v>
+        <v>0.06032034775916645</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>231</v>
+      </c>
+      <c r="J52" t="n">
+        <v>396</v>
+      </c>
+      <c r="K52" t="n">
+        <v>46.34253530037281</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3665327539.947911</v>
+        <v>2486129811.505558</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1912002045756878</v>
+        <v>0.1908635393476084</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03192557937324796</v>
+        <v>0.03154405531823687</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4136801935.448387</v>
+        <v>3677204809.034941</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1069047408638515</v>
+        <v>0.1441269586854901</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04142907916541838</v>
+        <v>0.03243660234664713</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>212</v>
+      </c>
+      <c r="J54" t="n">
+        <v>396</v>
+      </c>
+      <c r="K54" t="n">
+        <v>42.76661592572108</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3320757802.06417</v>
+        <v>3165048425.844371</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1923807333600863</v>
+        <v>0.167762916315073</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02600139365731856</v>
+        <v>0.03168597307161233</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>192</v>
+      </c>
+      <c r="J55" t="n">
+        <v>396</v>
+      </c>
+      <c r="K55" t="n">
+        <v>33.53968981980459</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1735409288.022582</v>
+        <v>1392242473.522494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1327241219404226</v>
+        <v>0.1479651450669564</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05245606389045891</v>
+        <v>0.05043727778209978</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2793024608.884049</v>
+        <v>4520556682.577754</v>
       </c>
       <c r="F57" t="n">
-        <v>0.140217041085211</v>
+        <v>0.137473618721958</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01965031640721554</v>
+        <v>0.01967947303681889</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>169</v>
+      </c>
+      <c r="J57" t="n">
+        <v>397</v>
+      </c>
+      <c r="K57" t="n">
+        <v>49.41487613971499</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1457399743.880955</v>
+        <v>1269924393.094717</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1487036110031869</v>
+        <v>0.1731589759450428</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03473482107469885</v>
+        <v>0.0356529601813291</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4136367876.446371</v>
+        <v>3382354265.231444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1217291780621422</v>
+        <v>0.1025063848543809</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03107173464422271</v>
+        <v>0.03956039459498066</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>194</v>
+      </c>
+      <c r="J59" t="n">
+        <v>396</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34.99978058600589</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3625987506.228427</v>
+        <v>3678321107.989799</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1882444018424587</v>
+        <v>0.126993455682769</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02269816648741068</v>
+        <v>0.02504770791809793</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>397</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2056685844.271904</v>
+        <v>2075454526.189012</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1538566902763973</v>
+        <v>0.1733373177941404</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03068279740376992</v>
+        <v>0.0315977482983375</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1774874032.389966</v>
+        <v>1987534818.600548</v>
       </c>
       <c r="F62" t="n">
-        <v>0.120407463189226</v>
+        <v>0.1833081659052848</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04136266581387888</v>
+        <v>0.0302767730734887</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4052249116.771603</v>
+        <v>4114035559.113802</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08303098506645562</v>
+        <v>0.1030734940456258</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03766190082443404</v>
+        <v>0.04315953979051877</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>197</v>
+      </c>
+      <c r="J63" t="n">
+        <v>397</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3911684825.636549</v>
+        <v>3988596054.126613</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1534502298356961</v>
+        <v>0.1264047045585313</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03015549844375436</v>
+        <v>0.02533597399266855</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>197</v>
+      </c>
+      <c r="J64" t="n">
+        <v>397</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5718367043.65905</v>
+        <v>4735921381.026284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1531189272150583</v>
+        <v>0.1661159691966801</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02146229243097611</v>
+        <v>0.03080564688583197</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>295</v>
+      </c>
+      <c r="J65" t="n">
+        <v>396</v>
+      </c>
+      <c r="K65" t="n">
+        <v>46.39253006227231</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4893310716.869657</v>
+        <v>4479972827.376122</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1217688591648223</v>
+        <v>0.1174383862236037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04774235584236738</v>
+        <v>0.04050827081233221</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>196</v>
+      </c>
+      <c r="J66" t="n">
+        <v>397</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2555401016.856039</v>
+        <v>2426771138.647627</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06639080303435867</v>
+        <v>0.06907728260752234</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04343425132970979</v>
+        <v>0.04716237497774622</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4500665228.941648</v>
+        <v>5183346301.635649</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1280362157450357</v>
+        <v>0.1598601177190925</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03859528646038143</v>
+        <v>0.03227534310065698</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>216</v>
+      </c>
+      <c r="J68" t="n">
+        <v>396</v>
+      </c>
+      <c r="K68" t="n">
+        <v>48.61665543786683</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1893113933.437365</v>
+        <v>1587894921.446144</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1189867969807206</v>
+        <v>0.1285295832524387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05995802415725616</v>
+        <v>0.03701817515783835</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2649008080.797346</v>
+        <v>3023553382.783001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07131113874608763</v>
+        <v>0.08515087908218941</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03576719636565866</v>
+        <v>0.04588625314203351</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4622413927.317578</v>
+        <v>3642650704.969699</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1531396792239831</v>
+        <v>0.1708478407150919</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03364418650178633</v>
+        <v>0.02318738649313653</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>282</v>
+      </c>
+      <c r="J71" t="n">
+        <v>396</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40.69392764955728</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1958600087.798571</v>
+        <v>2046223079.126368</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09072410749091039</v>
+        <v>0.07658610951938355</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03407716757524608</v>
+        <v>0.03246115437736461</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2223566656.913463</v>
+        <v>2353627080.546303</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108062593290953</v>
+        <v>0.08726966693134561</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03788428766301777</v>
+        <v>0.04496441375879587</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3416117640.981956</v>
+        <v>3410245140.624383</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1766186116161008</v>
+        <v>0.1385523713519441</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02673680098630201</v>
+        <v>0.02209373741183932</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1997933658.385451</v>
+        <v>1649826408.244884</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1164006929835022</v>
+        <v>0.1468983700136361</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03007247239682135</v>
+        <v>0.03432365544807423</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3657583004.729018</v>
+        <v>4446242305.889861</v>
       </c>
       <c r="F76" t="n">
-        <v>0.10974400866569</v>
+        <v>0.07852866077759389</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02274869571730867</v>
+        <v>0.02281579507200969</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>187</v>
+      </c>
+      <c r="J76" t="n">
+        <v>397</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1722578513.969739</v>
+        <v>1876152347.566382</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1233376889533752</v>
+        <v>0.1645203140134833</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03171648481585203</v>
+        <v>0.02016904237537371</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3875783923.383429</v>
+        <v>4388440150.644848</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09765297253045073</v>
+        <v>0.09624955292173863</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03481952595715491</v>
+        <v>0.03615848551863027</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>197</v>
+      </c>
+      <c r="J78" t="n">
+        <v>397</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1452629825.112973</v>
+        <v>1426300939.335809</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1484794703105406</v>
+        <v>0.107536207458645</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02478820350520015</v>
+        <v>0.02758215638603201</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4726568815.663546</v>
+        <v>4906213120.131994</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07653992631461193</v>
+        <v>0.1016919936876153</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02395097116966528</v>
+        <v>0.0311268270112719</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>194</v>
+      </c>
+      <c r="J80" t="n">
+        <v>396</v>
+      </c>
+      <c r="K80" t="n">
+        <v>40.44962879955058</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4065077807.673181</v>
+        <v>4063806008.032905</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1196841227736673</v>
+        <v>0.09095824645133779</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02562866534237979</v>
+        <v>0.02794561996082166</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>185</v>
+      </c>
+      <c r="J81" t="n">
+        <v>396</v>
+      </c>
+      <c r="K81" t="n">
+        <v>46.74827136750284</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3951312362.62156</v>
+        <v>5080700849.891249</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1663886670772353</v>
+        <v>0.1556908945342004</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01823696930887655</v>
+        <v>0.01793239598964237</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>272</v>
+      </c>
+      <c r="J82" t="n">
+        <v>397</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1736321991.701864</v>
+        <v>1869892251.821466</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1478607875591124</v>
+        <v>0.1477611159660722</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04303861907271722</v>
+        <v>0.04202666598164111</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2527993356.595099</v>
+        <v>2347666132.498255</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08611088029367253</v>
+        <v>0.08416219762423777</v>
       </c>
       <c r="G84" t="n">
-        <v>0.033751542846239</v>
+        <v>0.0327085974174342</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2971354370.301335</v>
+        <v>2418125986.004601</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1564558602802692</v>
+        <v>0.1739777934295841</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04927497587100308</v>
+        <v>0.054718210463353</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2687291580.548047</v>
+        <v>2100428519.969106</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1300434955549527</v>
+        <v>0.1146801916047249</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01847720361962565</v>
+        <v>0.02513958806726815</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1333505013.146503</v>
+        <v>1503309022.509766</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1890836707448927</v>
+        <v>0.1275831396166849</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0328363369015779</v>
+        <v>0.03384536341515483</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2954811831.877769</v>
+        <v>2540441111.320052</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1445128201573853</v>
+        <v>0.1296241524247378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03844442357620297</v>
+        <v>0.02515428117804381</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="n">
+        <v>29.97140194232133</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2964664575.094401</v>
+        <v>2528730166.149158</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1469590015458991</v>
+        <v>0.1454623291791978</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03073526400972375</v>
+        <v>0.04151384972381379</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1509591477.544994</v>
+        <v>1976181745.583527</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1316716703788691</v>
+        <v>0.09726056679276548</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03666586813588444</v>
+        <v>0.04477482092016001</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1688416569.190449</v>
+        <v>1380872667.723019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1497400784046955</v>
+        <v>0.1195206023767821</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0413302890073269</v>
+        <v>0.03852797245891822</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2736209404.79353</v>
+        <v>2333212476.328315</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09206130814783371</v>
+        <v>0.1039464860540208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03737964533999111</v>
+        <v>0.04640029393046904</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4485259471.87957</v>
+        <v>4503657188.822474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1237995394695715</v>
+        <v>0.09077921142576123</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0346518753258092</v>
+        <v>0.03977439923899921</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>189</v>
+      </c>
+      <c r="J93" t="n">
+        <v>397</v>
+      </c>
+      <c r="K93" t="n">
+        <v>49.57331030940958</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2430076301.515449</v>
+        <v>2026535836.556973</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093660141306454</v>
+        <v>0.1161806401016832</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04098716493444948</v>
+        <v>0.04137207488454339</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2893596574.822533</v>
+        <v>3231042387.211635</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09723385303240568</v>
+        <v>0.1130034911699119</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04962811304339223</v>
+        <v>0.04329015413113099</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1574494272.918396</v>
+        <v>1998713118.10861</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09463817873973845</v>
+        <v>0.09713625219159046</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04145714018200523</v>
+        <v>0.03128683919301439</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4162393262.172178</v>
+        <v>3529489777.316349</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1385197368486092</v>
+        <v>0.1750667484215319</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02484959904410705</v>
+        <v>0.02723408032666578</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>207</v>
+      </c>
+      <c r="J97" t="n">
+        <v>395</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2495483082.27553</v>
+        <v>3896605747.494936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09790344583680113</v>
+        <v>0.12879045434504</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02640301503606495</v>
+        <v>0.01983227846900485</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>397</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3320561504.695967</v>
+        <v>2487817045.555686</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105979732454286</v>
+        <v>0.08914756833593197</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02619954174073909</v>
+        <v>0.02911826276161815</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4726730656.965645</v>
+        <v>4168378717.897281</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1375779064765968</v>
+        <v>0.1655056064022209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02588515902459502</v>
+        <v>0.0180254748159942</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>184</v>
+      </c>
+      <c r="J100" t="n">
+        <v>397</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2698365096.223076</v>
+        <v>2802834166.365992</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2138941095166159</v>
+        <v>0.1343467312552199</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04202561919956232</v>
+        <v>0.0404117209607245</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
